--- a/Matrix/work2.xlsx
+++ b/Matrix/work2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\repos\Matrix\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFD4025-B865-4A44-97D0-FA4B0C7B59B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1C9B3D-92A2-4EAA-BEA7-B581E805FBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-408" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,7 +340,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -357,7 +353,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -397,7 +393,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -504,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
